--- a/WorkPlan/Work.Plan.v.2.xlsx
+++ b/WorkPlan/Work.Plan.v.2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Group02\WorkPlan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,27 +262,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
+    <numFmt numFmtId="176" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -285,7 +290,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +309,7 @@
       <u/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,6 +323,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -512,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -522,7 +534,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,6 +657,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -972,19 +992,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="73" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -998,7 +1018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1006,7 +1026,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1076,7 +1096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1090,7 +1110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>45</v>
       </c>
@@ -1118,7 +1138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1146,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
@@ -1168,7 +1188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -1182,7 +1202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
@@ -1196,7 +1216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1210,7 +1230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
@@ -1224,7 +1244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1252,7 @@
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1246,7 +1266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
@@ -1302,7 +1322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -1316,7 +1336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>39</v>
       </c>
@@ -1330,7 +1350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>41</v>
       </c>
@@ -1344,7 +1364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -1358,7 +1378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
@@ -1386,7 +1406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
@@ -1394,7 +1414,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
@@ -1422,7 +1442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>43</v>
       </c>
@@ -1436,7 +1456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
@@ -1450,7 +1470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
@@ -1464,7 +1484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
@@ -1478,7 +1498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
@@ -1492,7 +1512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
@@ -1520,7 +1540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>3</v>
       </c>
@@ -1528,7 +1548,7 @@
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -1542,7 +1562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -1556,7 +1576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
@@ -1570,7 +1590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
@@ -1584,7 +1604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>4</v>
       </c>
@@ -1592,7 +1612,7 @@
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
@@ -1615,8 +1635,9 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A41:D41"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="57" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
